--- a/PVaAr_aleph.xlsx
+++ b/PVaAr_aleph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yaelg\PycharmProjects\Aleph_custom4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8090865E-52D1-4D70-BE3D-52153033F317}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F222EE9F-1C85-4254-B643-F9A5F6828245}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8760" xr2:uid="{B3F77427-1D19-4CE4-97AD-E27A0161994A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="75">
   <si>
     <t>PVaAr</t>
   </si>
@@ -144,20 +144,133 @@
     <t>תיק</t>
   </si>
   <si>
-    <t>סימול/מספר מזהה</t>
+    <t>סימול</t>
+  </si>
+  <si>
+    <t>כותרת</t>
+  </si>
+  <si>
+    <t>אוסף ולנטינה ארכיפובה-גרוסמן</t>
+  </si>
+  <si>
+    <t>אפמרה</t>
+  </si>
+  <si>
+    <t>תכניה, בלט פיקולו חיפה</t>
+  </si>
+  <si>
+    <t>הזמנה, מוזיאון חיפה אירוע "פלייה רלווה" לזכר ולנטינה ארכיפובה-גרוסמן</t>
+  </si>
+  <si>
+    <t>כרזה, סטודיה לבלט חיפה</t>
+  </si>
+  <si>
+    <t>הזמנה, בלט פיקולו חיפה</t>
+  </si>
+  <si>
+    <t>הזמנה, The Royal Academy of Dancing</t>
+  </si>
+  <si>
+    <t>תצלומים</t>
+  </si>
+  <si>
+    <t>תצלומים אישיים</t>
+  </si>
+  <si>
+    <t>תצלומי במה מתוך מופע סמי קברט של ה-Trio Wallis בהשתתופתה של ולנטינה ארכיפובה-גרוסמן</t>
+  </si>
+  <si>
+    <t>תצלומים של ברטה ימפולסקי</t>
+  </si>
+  <si>
+    <t>תצלומים של רות אשל</t>
+  </si>
+  <si>
+    <t>תצלומי במה ממופעים שונים של ולנטינה ארכיפובה גרוסמן</t>
+  </si>
+  <si>
+    <t>תצלומים מקירות הסטודיו של ולנטינה ארכיפובה-גרוסמן</t>
+  </si>
+  <si>
+    <t>מסמכים</t>
+  </si>
+  <si>
+    <t>מערכי שיעור וסילבוסים של ה-RAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">שיעורים של משה פלדנקרייז </t>
+  </si>
+  <si>
+    <t>הרצאה בפני ארגון הסורופטימיסט</t>
+  </si>
+  <si>
+    <t>תעודות אישיות</t>
+  </si>
+  <si>
+    <t>רישום ותכנון של ריקודים</t>
+  </si>
+  <si>
+    <t>תווים</t>
+  </si>
+  <si>
+    <t>מכתבים עבור ולנטינה ארכיפובה</t>
+  </si>
+  <si>
+    <t>מכתבים מאת ולנטינה ארכיפובה</t>
+  </si>
+  <si>
+    <t>רשימות מאת ולנטינה ארכיפובה-גרוסמן, טקסטים מתורגמים מרוסית</t>
+  </si>
+  <si>
+    <t>טקסטים שנכתבו אודות ולנטינה ארכיפובה-גרוסמן</t>
+  </si>
+  <si>
+    <t>רשימות אישיות, ולנטינה ארכיפובה-גרוסמן</t>
+  </si>
+  <si>
+    <t>ציורים עבור ולנטינה ארכיפובה</t>
+  </si>
+  <si>
+    <t>עיתונות</t>
+  </si>
+  <si>
+    <t>מכתבים עבור ולנטינה ארכיפובה-גרוסמן</t>
+  </si>
+  <si>
+    <t>אובייקטים</t>
+  </si>
+  <si>
+    <t>קריקטורה מאוסף ניקולאי וסרגיי לגאט, מוקדשת לוולנטינה ארכיפובה על ידי נדין (נדייז'דה) גאט</t>
+  </si>
+  <si>
+    <t>נספח לקריקטורה מאוסף ניקולאי וסרגיי לגאט</t>
+  </si>
+  <si>
+    <t>סרטים</t>
+  </si>
+  <si>
+    <t>בחינת האלמנטרי הראשונה בישראל, סטודיו ולנטינה ארכיפובה-גרוסמן</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -169,7 +282,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -177,12 +290,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,300 +628,408 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E86AF7C-B101-48C8-831A-4BB278E1F27F}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="C24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="C26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="C28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="C29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="C31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="C32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="C33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="C35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>38</v>
+      </c>
+      <c r="C36" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
